--- a/jupyter_notebooks/file/input/project_brussels_test/network.xlsx
+++ b/jupyter_notebooks/file/input/project_brussels_test/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan/jupyter_notebooks/file/input/project_brussels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/project_brussels_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{42197B2D-FA18-4FAF-A27B-047D4D1E0F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D86348-D2F6-46FC-B691-881CBF2F15F8}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{42197B2D-FA18-4FAF-A27B-047D4D1E0F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69236EDA-F2F7-4906-86A9-B2C08737E43D}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1965" windowWidth="25440" windowHeight="15390" tabRatio="704" activeTab="5" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-25320" yWindow="-8805" windowWidth="25440" windowHeight="15270" tabRatio="704" activeTab="6" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="nodes" sheetId="1" r:id="rId4"/>
     <sheet name="loads" sheetId="8" r:id="rId5"/>
     <sheet name="switches" sheetId="14" r:id="rId6"/>
-    <sheet name="cost" sheetId="10" r:id="rId7"/>
-    <sheet name="generators" sheetId="2" r:id="rId8"/>
-    <sheet name="external_gen" sheetId="9" r:id="rId9"/>
-    <sheet name="tr_type" sheetId="6" r:id="rId10"/>
-    <sheet name="transformers" sheetId="3" r:id="rId11"/>
-    <sheet name="ln_type" sheetId="7" r:id="rId12"/>
-    <sheet name="lines" sheetId="4" r:id="rId13"/>
-    <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="static_generators" sheetId="15" r:id="rId7"/>
+    <sheet name="cost" sheetId="10" r:id="rId8"/>
+    <sheet name="generators" sheetId="2" r:id="rId9"/>
+    <sheet name="external_gen" sheetId="9" r:id="rId10"/>
+    <sheet name="tr_type" sheetId="6" r:id="rId11"/>
+    <sheet name="transformers" sheetId="3" r:id="rId12"/>
+    <sheet name="ln_type" sheetId="7" r:id="rId13"/>
+    <sheet name="lines" sheetId="4" r:id="rId14"/>
+    <sheet name="crews" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1274,10 +1275,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1618,6 +1615,116 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>-1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>-1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1850,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -2302,7 +2409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -2402,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
   <dimension ref="A1:S34"/>
   <sheetViews>
@@ -3498,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -26562,7 +26669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F048EE5-6CF5-4D91-BE31-E59CF33F6687}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -26674,6 +26781,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0C4944-D294-4D55-B3C2-0886162A1864}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03625BB4-D62C-4FF6-AAD9-1E9790CBA541}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -26963,7 +27082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5B7B5-BF13-4654-A134-6B30DC3D029F}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
@@ -27154,116 +27273,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>-1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>-1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c135c4ba-2280-41f8-be7d-6f21d368baa3}" enabled="1" method="Standard" siteId="{24139d14-c62c-4c47-8bdd-ce71ea1d50cf}" contentBits="0" removed="0"/>
